--- a/Pkg1.xlsx
+++ b/Pkg1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus18.TRANSITUS18-PC\Documents\test\ManasProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D10396B-61D2-4DD1-B8B6-CD09041D8E56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6B7BD4-EEC1-4690-A727-B8B1E078365C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,6 +736,9 @@
       <c r="H9" t="s">
         <v>43</v>
       </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
@@ -749,9 +752,6 @@
       </c>
       <c r="H10" t="s">
         <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">

--- a/Pkg1.xlsx
+++ b/Pkg1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -281,168 +281,6 @@
   </x:si>
   <x:si>
     <x:t>Details of Accounts successfully displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reassign Approve/Reject Lead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scroll down the Lead page to locate the 'Approval History' section.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the pending Approve/Reject requests listed.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>To Reassign the record's request, Click on the 'Reassign' link.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the 'Reassign Approval Request' Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In the 'Reassign Approval Request' section input the appropriate Approver in the 'Approver' field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input the appropriate Approver.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In the 'Reassign Approval Request' section, input Comments if required.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input appropriate comments.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on 'Reassign Approval Request' button.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the changes are saved and they are navigated to the Lead details Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the name in the 'Assigned To' field matches the name that was updated in 'Step 5'.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Approve/Reject Lead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>To Approve/Reject the record's request, Click on 'Approve/Reject' link.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Approval Request, Account:(Approver Name) Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In the 'Approve/Reject Approval Request' section, input comments if required.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the 'Approve' or the 'Reject' button to either Approve or Reject the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to either 'Approve' or 'Reject' the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On performing either 'Approval' or 'Rejection' action, user is navigated to the Lead request page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the request is either 'Approved' or 'Rejected'.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Approve/Reject through e-mail link Lead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The e-mail should contain a link to Approve/Reject the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Validate if the user has received an e-mail notification for Approve/Reject.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should have received an e-mail to Approve/Reject the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>To access this page, you have to log in to Salesforce.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the link provided in the e-mail.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Approval Request Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Under the 'Approve/Reject Approval Request' section, input comments if necessary.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input the comments.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Approve/Reject through e-mail Lead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The approver should receive an e-mail to Approve/Reject the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on 'Reply All' option to respond to the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to reply all through the e-mail chain.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>To Approve/Reject the request reply e-mail with one of these words: APPROVE, APPROVED, YES, REJECT, REJECTED, NO.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to reply the email message: APPROVE, APPROVED, YES,REJECT, REJECTED, NO.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Navigate to the  Lead page on Salesforce.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_6.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify Automatically Assign Users/Queues Lead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Navigate to the Leads Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Lead Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>From the list of recent Leads displayed, select the appropriate Lead.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Validate if the AnnualRevenue is set to lessThan 50000 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the AnnualRevenue is set to lessThan 50000 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On the Lead Details page, validate the Lead Owner.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the Lead Owner is Queue:Product_support_Tier_1 .</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -526,8 +364,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J52" totalsRowShown="0">
-  <x:autoFilter ref="A1:J52"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J21" totalsRowShown="0">
+  <x:autoFilter ref="A1:J21"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -832,7 +670,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J52"/>
+  <x:dimension ref="A1:J21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -840,12 +678,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="44.550625000000004" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="28.130625000000002" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="59.840625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="107.70062499999999" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="102.70062499999999" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="72.840624999999989" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="68.550625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -1281,606 +1119,6 @@
       </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:10">
-      <x:c r="A22" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E22" s="0" t="s"/>
-      <x:c r="F22" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I22" s="0" t="s"/>
-      <x:c r="J22" s="0" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:10">
-      <x:c r="A23" s="0" t="s"/>
-      <x:c r="B23" s="0" t="s"/>
-      <x:c r="C23" s="0" t="s"/>
-      <x:c r="D23" s="0" t="s"/>
-      <x:c r="E23" s="0" t="s"/>
-      <x:c r="F23" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I23" s="0" t="s"/>
-      <x:c r="J23" s="0" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:10">
-      <x:c r="A24" s="0" t="s"/>
-      <x:c r="B24" s="0" t="s"/>
-      <x:c r="C24" s="0" t="s"/>
-      <x:c r="D24" s="0" t="s"/>
-      <x:c r="E24" s="0" t="s"/>
-      <x:c r="F24" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G24" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="H24" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="I24" s="0" t="s"/>
-      <x:c r="J24" s="0" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:10">
-      <x:c r="A25" s="0" t="s"/>
-      <x:c r="B25" s="0" t="s"/>
-      <x:c r="C25" s="0" t="s"/>
-      <x:c r="D25" s="0" t="s"/>
-      <x:c r="E25" s="0" t="s"/>
-      <x:c r="F25" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G25" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="I25" s="0" t="s"/>
-      <x:c r="J25" s="0" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:10">
-      <x:c r="A26" s="0" t="s"/>
-      <x:c r="B26" s="0" t="s"/>
-      <x:c r="C26" s="0" t="s"/>
-      <x:c r="D26" s="0" t="s"/>
-      <x:c r="E26" s="0" t="s"/>
-      <x:c r="F26" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G26" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="H26" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="I26" s="0" t="s"/>
-      <x:c r="J26" s="0" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:10">
-      <x:c r="A27" s="0" t="s"/>
-      <x:c r="B27" s="0" t="s"/>
-      <x:c r="C27" s="0" t="s"/>
-      <x:c r="D27" s="0" t="s"/>
-      <x:c r="E27" s="0" t="s"/>
-      <x:c r="F27" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G27" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="H27" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="I27" s="0" t="s"/>
-      <x:c r="J27" s="0" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:10">
-      <x:c r="A28" s="0" t="s"/>
-      <x:c r="B28" s="0" t="s"/>
-      <x:c r="C28" s="0" t="s"/>
-      <x:c r="D28" s="0" t="s"/>
-      <x:c r="E28" s="0" t="s"/>
-      <x:c r="F28" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G28" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="H28" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="I28" s="0" t="s"/>
-      <x:c r="J28" s="0" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:10">
-      <x:c r="A29" s="0" t="s"/>
-      <x:c r="B29" s="0" t="s"/>
-      <x:c r="C29" s="0" t="s"/>
-      <x:c r="D29" s="0" t="s"/>
-      <x:c r="E29" s="0" t="s"/>
-      <x:c r="F29" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G29" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="H29" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="I29" s="0" t="s"/>
-      <x:c r="J29" s="0" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:10">
-      <x:c r="A30" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B30" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C30" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E30" s="0" t="s"/>
-      <x:c r="F30" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G30" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H30" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I30" s="0" t="s"/>
-      <x:c r="J30" s="0" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:10">
-      <x:c r="A31" s="0" t="s"/>
-      <x:c r="B31" s="0" t="s"/>
-      <x:c r="C31" s="0" t="s"/>
-      <x:c r="D31" s="0" t="s"/>
-      <x:c r="E31" s="0" t="s"/>
-      <x:c r="F31" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G31" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H31" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I31" s="0" t="s"/>
-      <x:c r="J31" s="0" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:10">
-      <x:c r="A32" s="0" t="s"/>
-      <x:c r="B32" s="0" t="s"/>
-      <x:c r="C32" s="0" t="s"/>
-      <x:c r="D32" s="0" t="s"/>
-      <x:c r="E32" s="0" t="s"/>
-      <x:c r="F32" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G32" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="H32" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="I32" s="0" t="s"/>
-      <x:c r="J32" s="0" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:10">
-      <x:c r="A33" s="0" t="s"/>
-      <x:c r="B33" s="0" t="s"/>
-      <x:c r="C33" s="0" t="s"/>
-      <x:c r="D33" s="0" t="s"/>
-      <x:c r="E33" s="0" t="s"/>
-      <x:c r="F33" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G33" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="H33" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="I33" s="0" t="s"/>
-      <x:c r="J33" s="0" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:10">
-      <x:c r="A34" s="0" t="s"/>
-      <x:c r="B34" s="0" t="s"/>
-      <x:c r="C34" s="0" t="s"/>
-      <x:c r="D34" s="0" t="s"/>
-      <x:c r="E34" s="0" t="s"/>
-      <x:c r="F34" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G34" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="H34" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="I34" s="0" t="s"/>
-      <x:c r="J34" s="0" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:10">
-      <x:c r="A35" s="0" t="s"/>
-      <x:c r="B35" s="0" t="s"/>
-      <x:c r="C35" s="0" t="s"/>
-      <x:c r="D35" s="0" t="s"/>
-      <x:c r="E35" s="0" t="s"/>
-      <x:c r="F35" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G35" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="H35" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="I35" s="0" t="s"/>
-      <x:c r="J35" s="0" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:10">
-      <x:c r="A36" s="0" t="s"/>
-      <x:c r="B36" s="0" t="s"/>
-      <x:c r="C36" s="0" t="s"/>
-      <x:c r="D36" s="0" t="s"/>
-      <x:c r="E36" s="0" t="s"/>
-      <x:c r="F36" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G36" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="H36" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I36" s="0" t="s"/>
-      <x:c r="J36" s="0" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:10">
-      <x:c r="A37" s="0" t="s"/>
-      <x:c r="B37" s="0" t="s"/>
-      <x:c r="C37" s="0" t="s"/>
-      <x:c r="D37" s="0" t="s"/>
-      <x:c r="E37" s="0" t="s"/>
-      <x:c r="F37" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G37" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="H37" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="I37" s="0" t="s"/>
-      <x:c r="J37" s="0" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:10">
-      <x:c r="A38" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="B38" s="0" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C38" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="D38" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E38" s="0" t="s"/>
-      <x:c r="F38" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G38" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="H38" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="I38" s="0" t="s"/>
-      <x:c r="J38" s="0" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:10">
-      <x:c r="A39" s="0" t="s"/>
-      <x:c r="B39" s="0" t="s"/>
-      <x:c r="C39" s="0" t="s"/>
-      <x:c r="D39" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="E39" s="0" t="s"/>
-      <x:c r="F39" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G39" s="0" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="H39" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="I39" s="0" t="s"/>
-      <x:c r="J39" s="0" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:10">
-      <x:c r="A40" s="0" t="s"/>
-      <x:c r="B40" s="0" t="s"/>
-      <x:c r="C40" s="0" t="s"/>
-      <x:c r="D40" s="0" t="s"/>
-      <x:c r="E40" s="0" t="s"/>
-      <x:c r="F40" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G40" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="H40" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="I40" s="0" t="s"/>
-      <x:c r="J40" s="0" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:10">
-      <x:c r="A41" s="0" t="s"/>
-      <x:c r="B41" s="0" t="s"/>
-      <x:c r="C41" s="0" t="s"/>
-      <x:c r="D41" s="0" t="s"/>
-      <x:c r="E41" s="0" t="s"/>
-      <x:c r="F41" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G41" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="H41" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="I41" s="0" t="s"/>
-      <x:c r="J41" s="0" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:10">
-      <x:c r="A42" s="0" t="s"/>
-      <x:c r="B42" s="0" t="s"/>
-      <x:c r="C42" s="0" t="s"/>
-      <x:c r="D42" s="0" t="s"/>
-      <x:c r="E42" s="0" t="s"/>
-      <x:c r="F42" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G42" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="H42" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I42" s="0" t="s"/>
-      <x:c r="J42" s="0" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:10">
-      <x:c r="A43" s="0" t="s"/>
-      <x:c r="B43" s="0" t="s"/>
-      <x:c r="C43" s="0" t="s"/>
-      <x:c r="D43" s="0" t="s"/>
-      <x:c r="E43" s="0" t="s"/>
-      <x:c r="F43" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G43" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="H43" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="I43" s="0" t="s"/>
-      <x:c r="J43" s="0" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:10">
-      <x:c r="A44" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="B44" s="0" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C44" s="0" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D44" s="0" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="E44" s="0" t="s"/>
-      <x:c r="F44" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G44" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="H44" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="I44" s="0" t="s"/>
-      <x:c r="J44" s="0" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:10">
-      <x:c r="A45" s="0" t="s"/>
-      <x:c r="B45" s="0" t="s"/>
-      <x:c r="C45" s="0" t="s"/>
-      <x:c r="D45" s="0" t="s"/>
-      <x:c r="E45" s="0" t="s"/>
-      <x:c r="F45" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G45" s="0" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="H45" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="I45" s="0" t="s"/>
-      <x:c r="J45" s="0" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:10">
-      <x:c r="A46" s="0" t="s"/>
-      <x:c r="B46" s="0" t="s"/>
-      <x:c r="C46" s="0" t="s"/>
-      <x:c r="D46" s="0" t="s"/>
-      <x:c r="E46" s="0" t="s"/>
-      <x:c r="F46" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G46" s="0" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="H46" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="I46" s="0" t="s"/>
-      <x:c r="J46" s="0" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:10">
-      <x:c r="A47" s="0" t="s"/>
-      <x:c r="B47" s="0" t="s"/>
-      <x:c r="C47" s="0" t="s"/>
-      <x:c r="D47" s="0" t="s"/>
-      <x:c r="E47" s="0" t="s"/>
-      <x:c r="F47" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G47" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="H47" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I47" s="0" t="s"/>
-      <x:c r="J47" s="0" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:10">
-      <x:c r="A48" s="0" t="s"/>
-      <x:c r="B48" s="0" t="s"/>
-      <x:c r="C48" s="0" t="s"/>
-      <x:c r="D48" s="0" t="s"/>
-      <x:c r="E48" s="0" t="s"/>
-      <x:c r="F48" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G48" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="H48" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="I48" s="0" t="s"/>
-      <x:c r="J48" s="0" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:10">
-      <x:c r="A49" s="0" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="B49" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="C49" s="0" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="D49" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E49" s="0" t="s"/>
-      <x:c r="F49" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G49" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="H49" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="I49" s="0" t="s"/>
-      <x:c r="J49" s="0" t="s"/>
-    </x:row>
-    <x:row r="50" spans="1:10">
-      <x:c r="A50" s="0" t="s"/>
-      <x:c r="B50" s="0" t="s"/>
-      <x:c r="C50" s="0" t="s"/>
-      <x:c r="D50" s="0" t="s"/>
-      <x:c r="E50" s="0" t="s"/>
-      <x:c r="F50" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G50" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="H50" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I50" s="0" t="s"/>
-      <x:c r="J50" s="0" t="s"/>
-    </x:row>
-    <x:row r="51" spans="1:10">
-      <x:c r="A51" s="0" t="s"/>
-      <x:c r="B51" s="0" t="s"/>
-      <x:c r="C51" s="0" t="s"/>
-      <x:c r="D51" s="0" t="s"/>
-      <x:c r="E51" s="0" t="s"/>
-      <x:c r="F51" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G51" s="0" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="H51" s="0" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="I51" s="0" t="s"/>
-      <x:c r="J51" s="0" t="s"/>
-    </x:row>
-    <x:row r="52" spans="1:10">
-      <x:c r="A52" s="0" t="s"/>
-      <x:c r="B52" s="0" t="s"/>
-      <x:c r="C52" s="0" t="s"/>
-      <x:c r="D52" s="0" t="s"/>
-      <x:c r="E52" s="0" t="s"/>
-      <x:c r="F52" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G52" s="0" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="H52" s="0" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="I52" s="0" t="s"/>
-      <x:c r="J52" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
